--- a/cml_lab_seed_file.xlsx
+++ b/cml_lab_seed_file.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/umahar_cisco_com/Documents/vscodeprojects/endpoint-discovery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/umahar_cisco_com/Documents/vscodeprojects/endpoint-discovery-NA/endpoint-discovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{C68C9BBC-526B-FA48-9A62-CE393E6AE30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC39E1F-B84A-2A4B-9F30-A304A1DD1458}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{C68C9BBC-526B-FA48-9A62-CE393E6AE30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49111A74-A72A-064C-936A-681EF2C8AF1A}"/>
   <bookViews>
-    <workbookView xWindow="44580" yWindow="-1220" windowWidth="29040" windowHeight="19520" xr2:uid="{A1640F52-ED6C-6D4E-A376-B503127A61CC}"/>
+    <workbookView xWindow="44580" yWindow="-1300" windowWidth="29040" windowHeight="19480" xr2:uid="{A1640F52-ED6C-6D4E-A376-B503127A61CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="MUS1-ND-SeedFile" sheetId="3" r:id="rId1"/>
+    <sheet name="seed" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MUS1-ND-SeedFile'!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">seed!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>hostname</t>
   </si>
@@ -68,17 +68,59 @@
     <t>layer2_layer3</t>
   </si>
   <si>
-    <t>10.104.55.35</t>
-  </si>
-  <si>
-    <t>10.104.55.37</t>
+    <t>l3_iosxe_2</t>
+  </si>
+  <si>
+    <t>l2_nxos_1</t>
+  </si>
+  <si>
+    <t>nxos</t>
+  </si>
+  <si>
+    <t>l3_nxos_1</t>
+  </si>
+  <si>
+    <t>layer3</t>
+  </si>
+  <si>
+    <t>l3_nxos_2</t>
+  </si>
+  <si>
+    <t>l2_nxos_2</t>
+  </si>
+  <si>
+    <t>l2_iosxe_2</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>10.10.10.3</t>
+  </si>
+  <si>
+    <t>10.10.10.4</t>
+  </si>
+  <si>
+    <t>10.10.10.5</t>
+  </si>
+  <si>
+    <t>10.10.10.6</t>
+  </si>
+  <si>
+    <t>10.10.10.7</t>
+  </si>
+  <si>
+    <t>10.10.10.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +152,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,10 +181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B097F1-F615-BA4C-97F1-745B18C5DBE3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,11 +530,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -493,16 +544,100 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -513,6 +648,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C86C39C3AA0D154E89A7E7C227474EE2" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be5385d250fcbdf2ed68ad176dcaebf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0124ae98-eb5a-4a8f-b9d3-6af86c57b4a7" xmlns:ns3="4074cc52-ef7b-4aa6-90f9-6d41f2c2de87" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e68ed2517af805388d337c004e8224cf" ns2:_="" ns3:_="">
     <xsd:import namespace="0124ae98-eb5a-4a8f-b9d3-6af86c57b4a7"/>
@@ -749,15 +893,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -771,6 +906,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4B1B4A-9A7D-49AC-BC01-7B86D17D685F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEFCCB-514E-4031-9355-E49F89554576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -789,27 +932,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4B1B4A-9A7D-49AC-BC01-7B86D17D685F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A96F95C5-F053-4C54-8DDA-FE8A068B0EBA}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="4074cc52-ef7b-4aa6-90f9-6d41f2c2de87"/>
     <ds:schemaRef ds:uri="0124ae98-eb5a-4a8f-b9d3-6af86c57b4a7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>